--- a/medicine/Enfance/Herta_Hauben/Herta_Hauben.xlsx
+++ b/medicine/Enfance/Herta_Hauben/Herta_Hauben.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Herta Hauben (27 mai 1911, Aschaffenbourg, Royaume de Bavière-10 mars 1944, Auschwitz) est une juive française d'origine allemande, Résistante, membre du Réseau Garel, avec l'Œuvre de secours aux enfants (OSE), de 1943 à début 1944 à Grenoble (Isère). Elle est déportée à Auschwitz par le Convoi No. 69, en date du 7 mars 1944.
 </t>
@@ -511,12 +523,49 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herta Hauben est née le 27 mai 1911 à Aschaffenbourg, royaume de Bavière[1].
-Elle travaille avec Madeleine Kahn et le docteur Seilinger dans l'Isère, dans le Réseau Garel[2].
-Déportation
-Herta Hauben est arrêtée à Grenoble. Sa dernière adresse est au 4 rue des 400 Couverts à Grenoble (Isère). Elle est déportée à 32 ans, par le Convoi No. 69, en date du 7 mars 1944, du Camp de Drancy vers Auschwitz, où elle est assassinée[1],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Herta Hauben est née le 27 mai 1911 à Aschaffenbourg, royaume de Bavière.
+Elle travaille avec Madeleine Kahn et le docteur Seilinger dans l'Isère, dans le Réseau Garel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Herta_Hauben</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herta_Hauben</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Déportation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Herta Hauben est arrêtée à Grenoble. Sa dernière adresse est au 4 rue des 400 Couverts à Grenoble (Isère). Elle est déportée à 32 ans, par le Convoi No. 69, en date du 7 mars 1944, du Camp de Drancy vers Auschwitz, où elle est assassinée,.
 </t>
         </is>
       </c>
